--- a/biology/Médecine/Intervalle_QT/Intervalle_QT.xlsx
+++ b/biology/Médecine/Intervalle_QT/Intervalle_QT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’intervalle QT désigne le laps de temps qui sépare les ondes Q et T sur le tracé d’un électrocardiogramme. Il quantifie le temps entre le début de dépolarisation des cellules myocardiques et leur repolarisation.
-Un effet secondaire classique de nombreuses classes de médicaments est l’allongement de cet intervalle QT. C'est le cas par exemple des neuroleptiques[1], des antipaludiques, des macrolides ou des fluoroquinolones.
+Un effet secondaire classique de nombreuses classes de médicaments est l’allongement de cet intervalle QT. C'est le cas par exemple des neuroleptiques, des antipaludiques, des macrolides ou des fluoroquinolones.
 Plus rarement, des modifications de la durée de cet intervalle peuvent être d'origine génétique : syndrome du QT long, syndrome du QT court.
 </t>
         </is>
